--- a/Learn_Web_Prosesing_Data_Excle/pfg_konversi_sc/Book1.xlsx
+++ b/Learn_Web_Prosesing_Data_Excle/pfg_konversi_sc/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_WorkingData\05_git\My_Learing_Code\Learn_Web_Prosesing_Data_Excle\pfg_konversi_sc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7A0782-3EEF-4BFE-9300-EC7106CFD8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13A1589-37F6-484D-B80C-04D1351C7455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{A9D70391-4998-43FE-95C1-DAD7BCC1C164}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A9D70391-4998-43FE-95C1-DAD7BCC1C164}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
   <si>
     <t>PO</t>
   </si>
@@ -75,6 +75,24 @@
   </si>
   <si>
     <t>l</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>qwerty</t>
+  </si>
+  <si>
+    <t>blk</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>xl</t>
+  </si>
+  <si>
+    <t>UK</t>
   </si>
 </sst>
 </file>
@@ -449,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45108724-F681-4B97-9A65-476435B8C33F}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,22 +521,22 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>123123123</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>123123123</v>
-      </c>
-      <c r="C2">
-        <v>123123123</v>
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
-        <v>123</v>
-      </c>
-      <c r="F2">
-        <v>123</v>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -532,22 +550,22 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>123123123</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>123123123</v>
-      </c>
-      <c r="C3">
-        <v>123123123</v>
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3">
-        <v>234</v>
-      </c>
-      <c r="F3">
-        <v>432</v>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -559,6 +577,166 @@
         <v>5</v>
       </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
         <v>0</v>
       </c>
     </row>

--- a/Learn_Web_Prosesing_Data_Excle/pfg_konversi_sc/Book1.xlsx
+++ b/Learn_Web_Prosesing_Data_Excle/pfg_konversi_sc/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_WorkingData\05_git\My_Learing_Code\Learn_Web_Prosesing_Data_Excle\pfg_konversi_sc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13A1589-37F6-484D-B80C-04D1351C7455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432251C1-5DB5-4733-8970-ADCC7C943936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A9D70391-4998-43FE-95C1-DAD7BCC1C164}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
   <si>
     <t>PO</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>UK</t>
+  </si>
+  <si>
+    <t>2xl</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
   </si>
 </sst>
 </file>
@@ -467,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45108724-F681-4B97-9A65-476435B8C33F}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,14 +486,15 @@
     <col min="3" max="3" width="21.140625" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="25.140625" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,10 +505,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -513,13 +520,16 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -530,9 +540,6 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
@@ -544,11 +551,14 @@
       <c r="H2">
         <v>10</v>
       </c>
-      <c r="I2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -559,9 +569,6 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
@@ -573,14 +580,17 @@
       <c r="H3">
         <v>10</v>
       </c>
-      <c r="I3">
-        <v>5</v>
+      <c r="I3" t="s">
+        <v>10</v>
       </c>
       <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -591,9 +601,6 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
@@ -605,14 +612,17 @@
       <c r="H4">
         <v>10</v>
       </c>
-      <c r="I4">
-        <v>5</v>
+      <c r="I4" t="s">
+        <v>10</v>
       </c>
       <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -623,9 +633,6 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
@@ -637,14 +644,17 @@
       <c r="H5">
         <v>10</v>
       </c>
-      <c r="I5">
-        <v>5</v>
+      <c r="I5" t="s">
+        <v>10</v>
       </c>
       <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -655,9 +665,6 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
@@ -669,14 +676,17 @@
       <c r="H6">
         <v>10</v>
       </c>
-      <c r="I6">
-        <v>5</v>
+      <c r="I6" t="s">
+        <v>10</v>
       </c>
       <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -687,9 +697,6 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="F7" t="s">
@@ -701,14 +708,17 @@
       <c r="H7">
         <v>10</v>
       </c>
-      <c r="I7">
-        <v>5</v>
+      <c r="I7" t="s">
+        <v>10</v>
       </c>
       <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -719,9 +729,6 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
@@ -733,10 +740,45 @@
       <c r="H8">
         <v>10</v>
       </c>
-      <c r="I8">
-        <v>5</v>
+      <c r="I8" t="s">
+        <v>10</v>
       </c>
       <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
         <v>0</v>
       </c>
     </row>

--- a/Learn_Web_Prosesing_Data_Excle/pfg_konversi_sc/Book1.xlsx
+++ b/Learn_Web_Prosesing_Data_Excle/pfg_konversi_sc/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_WorkingData\05_git\My_Learing_Code\Learn_Web_Prosesing_Data_Excle\pfg_konversi_sc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432251C1-5DB5-4733-8970-ADCC7C943936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C185E344-2B83-4692-B8F3-780224FB56BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A9D70391-4998-43FE-95C1-DAD7BCC1C164}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Learn_Web_Prosesing_Data_Excle/pfg_konversi_sc/Book1.xlsx
+++ b/Learn_Web_Prosesing_Data_Excle/pfg_konversi_sc/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_WorkingData\05_git\My_Learing_Code\Learn_Web_Prosesing_Data_Excle\pfg_konversi_sc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E5FFBD-4FCD-4AEC-85E9-B267FADCD653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C31A8C5-0ECF-4EFF-965C-A7BDEA844A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{A9D70391-4998-43FE-95C1-DAD7BCC1C164}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A9D70391-4998-43FE-95C1-DAD7BCC1C164}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="94">
   <si>
     <t>PO</t>
   </si>
@@ -298,6 +298,27 @@
   </si>
   <si>
     <t>AEB-DCS</t>
+  </si>
+  <si>
+    <t>COLOR_NAME</t>
+  </si>
+  <si>
+    <t>3xl</t>
+  </si>
+  <si>
+    <t>4xl</t>
+  </si>
+  <si>
+    <t>5xl</t>
+  </si>
+  <si>
+    <t>6xl</t>
+  </si>
+  <si>
+    <t>7xl</t>
+  </si>
+  <si>
+    <t>8xl</t>
   </si>
 </sst>
 </file>
@@ -672,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45108724-F681-4B97-9A65-476435B8C33F}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,16 +705,16 @@
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
     <col min="3" max="3" width="21.140625" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,22 +734,25 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -744,20 +768,20 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2">
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -773,23 +797,23 @@
       <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3">
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3">
         <v>5</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -805,23 +829,23 @@
       <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>17</v>
       </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4">
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4">
         <v>5</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -837,23 +861,23 @@
       <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5">
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5">
         <v>5</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -869,23 +893,23 @@
       <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>12</v>
       </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6">
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6">
         <v>5</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -901,23 +925,23 @@
       <c r="F7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>11</v>
       </c>
-      <c r="H7">
-        <v>10</v>
-      </c>
-      <c r="I7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7">
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7">
         <v>5</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -933,23 +957,23 @@
       <c r="F8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>12</v>
       </c>
-      <c r="H8">
-        <v>10</v>
-      </c>
-      <c r="I8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8">
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8">
         <v>5</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -965,23 +989,23 @@
       <c r="F9" t="s">
         <v>15</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>17</v>
       </c>
-      <c r="H9">
-        <v>10</v>
-      </c>
-      <c r="I9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9">
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9">
         <v>5</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -997,23 +1021,23 @@
       <c r="F10" t="s">
         <v>15</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>19</v>
       </c>
-      <c r="H10">
-        <v>10</v>
-      </c>
-      <c r="I10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10">
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10">
         <v>5</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1029,23 +1053,23 @@
       <c r="F11" t="s">
         <v>15</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>11</v>
       </c>
-      <c r="H11">
-        <v>10</v>
-      </c>
-      <c r="I11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11">
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11">
         <v>5</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1061,23 +1085,23 @@
       <c r="F12" t="s">
         <v>15</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>12</v>
       </c>
-      <c r="H12">
-        <v>10</v>
-      </c>
-      <c r="I12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12">
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12">
         <v>5</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1093,23 +1117,23 @@
       <c r="F13" t="s">
         <v>15</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>17</v>
       </c>
-      <c r="H13">
-        <v>10</v>
-      </c>
-      <c r="I13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13">
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13">
         <v>5</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1125,20 +1149,194 @@
       <c r="F14" t="s">
         <v>15</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>19</v>
       </c>
-      <c r="H14">
-        <v>10</v>
-      </c>
-      <c r="I14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14">
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="J14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14">
         <v>5</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+      <c r="J15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="J19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
+      <c r="J20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1150,7 +1348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC71D4C-3BA3-4EFD-8A53-E0A306B5E9CB}">
   <dimension ref="A1:M279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+    <sheetView topLeftCell="A199" workbookViewId="0">
       <selection activeCell="N238" sqref="N238"/>
     </sheetView>
   </sheetViews>
